--- a/trunk/public/download/templet/Employee.xlsx
+++ b/trunk/public/download/templet/Employee.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">员工姓名</t>
   </si>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">是领导</t>
   </si>
   <si>
-    <t xml:space="preserve">角色</t>
+    <t xml:space="preserve">部门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职位</t>
   </si>
   <si>
     <r>
@@ -84,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研发部,产品组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职员</t>
   </si>
 </sst>
 </file>
@@ -225,18 +234,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -258,46 +272,52 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>15858585518</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>518</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>5858518</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>5858518</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
